--- a/data/trans_dic/P39A4_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P39A4_2023-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>87,56; 92,8</t>
+          <t>87,49; 92,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>90,42; 93,66</t>
+          <t>90,19; 93,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>90,0; 92,78</t>
+          <t>89,83; 92,67</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>91,0; 93,73</t>
+          <t>90,88; 93,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>90,46; 94,18</t>
+          <t>90,43; 94,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>91,23; 93,62</t>
+          <t>91,36; 93,61</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>92,57; 96,43</t>
+          <t>92,59; 96,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,91; 95,4</t>
+          <t>92,11; 95,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>92,97; 95,37</t>
+          <t>92,91; 95,44</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>91,53; 93,63</t>
+          <t>91,61; 93,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91,44; 93,81</t>
+          <t>91,42; 93,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>91,81; 93,42</t>
+          <t>91,86; 93,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A4_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P39A4_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>87,49; 92,83</t>
+          <t>87,56; 92,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>90,19; 93,71</t>
+          <t>90,42; 93,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>89,83; 92,67</t>
+          <t>90,0; 92,78</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>90,88; 93,91</t>
+          <t>91,0; 93,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>90,43; 94,16</t>
+          <t>90,46; 94,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>91,36; 93,61</t>
+          <t>91,23; 93,62</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>92,59; 96,26</t>
+          <t>92,57; 96,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>92,11; 95,44</t>
+          <t>91,91; 95,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>92,91; 95,44</t>
+          <t>92,97; 95,37</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>91,61; 93,75</t>
+          <t>91,53; 93,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91,42; 93,81</t>
+          <t>91,44; 93,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>91,86; 93,46</t>
+          <t>91,81; 93,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A4_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P39A4_2023-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>90,4%</t>
+          <t>90,34%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>92,07%</t>
+          <t>91,93%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>91,41%</t>
+          <t>91,28%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>87,56; 92,8</t>
+          <t>87,45; 92,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>90,42; 93,66</t>
+          <t>90,23; 93,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>90,0; 92,78</t>
+          <t>89,86; 92,67</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>92,43%</t>
+          <t>92,83%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>92,76%</t>
+          <t>90,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>92,6%</t>
+          <t>91,69%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>91,0; 93,73</t>
+          <t>90,92; 94,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>90,46; 94,18</t>
+          <t>78,77; 94,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>91,23; 93,62</t>
+          <t>85,43; 93,66</t>
         </is>
       </c>
     </row>
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>94,66%</t>
+          <t>94,61%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>93,93%</t>
+          <t>93,97%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>92,57; 96,43</t>
+          <t>92,48; 96,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>91,91; 95,4</t>
+          <t>92,02; 95,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>92,97; 95,37</t>
+          <t>92,97; 95,35</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>92,6%</t>
+          <t>92,85%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>92,86%</t>
+          <t>91,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>92,74%</t>
+          <t>92,13%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>91,53; 93,63</t>
+          <t>91,64; 94,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>91,44; 93,81</t>
+          <t>83,66; 93,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>91,81; 93,42</t>
+          <t>88,59; 93,51</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A4_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P39A4_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>87,45; 92,76</t>
+          <t>87,18; 92,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>90,23; 93,52</t>
+          <t>90,15; 93,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>89,86; 92,67</t>
+          <t>89,65; 92,72</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>90,92; 94,88</t>
+          <t>91,2; 95,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>78,77; 94,26</t>
+          <t>80,17; 94,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>85,43; 93,66</t>
+          <t>85,83; 93,71</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>92,48; 96,41</t>
+          <t>92,59; 96,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>92,02; 95,38</t>
+          <t>91,99; 95,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>92,97; 95,35</t>
+          <t>92,98; 95,44</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>91,64; 94,62</t>
+          <t>91,58; 94,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>83,66; 93,74</t>
+          <t>84,04; 93,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>88,59; 93,51</t>
+          <t>88,69; 93,56</t>
         </is>
       </c>
     </row>
@@ -760,4 +761,388 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que sí diría que estar con dolor o malestar en los brazos o en el pecho es un síntoma de que a alguien le está dando un ataque al corazón</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1075</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1589</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>393165</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>576701</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>969866</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>379417; 403161</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>565522; 586432</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>952548; 985177</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1744</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2598</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2012396</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1913090</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3925485</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1976958; 2061312</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1694278; 1988668</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3674510; 4011902</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>623</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>919</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1542</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>596583</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>608385</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>1204968</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>583803; 606878</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>595548; 617742</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1188239; 1219689</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2881</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4592</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7473</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3002144</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3098175</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6100320</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2961281; 3054623</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2847427; 3171811</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>5872724; 6195506</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>